--- a/datasheets/Stoskopf_et_al_2001.xlsx
+++ b/datasheets/Stoskopf_et_al_2001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="57">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Captive individual 1</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/S0306-4565(00)00041-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoskopf et al. (2001)</t>
   </si>
   <si>
     <t xml:space="preserve">bone, lumbar vertebra</t>
@@ -352,10 +358,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2:AF17"/>
+      <selection pane="topLeft" activeCell="AG26" activeCellId="0" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +391,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="36.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="18.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -486,40 +493,43 @@
       <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>19.39</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>-3.6</v>
@@ -581,45 +591,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>19.08</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>-3.6</v>
@@ -681,45 +694,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>19.32</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>-3.6</v>
@@ -781,45 +797,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>19.35</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>-3.6</v>
@@ -881,45 +900,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>19.16</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>-3.6</v>
@@ -981,45 +1003,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF6" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>19.14</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>-3.6</v>
@@ -1081,45 +1106,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF7" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="6" t="n">
         <v>18.85</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>-3.6</v>
@@ -1181,45 +1209,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>19.25</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="5" t="n">
         <v>-3.6</v>
@@ -1281,45 +1312,48 @@
         <v>-3.2</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF9" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>21.35</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>-3.7</v>
@@ -1381,45 +1415,48 @@
         <v>-4.6</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF10" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>21.12</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>-3.7</v>
@@ -1481,45 +1518,48 @@
         <v>-4.6</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF11" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J12" s="6" t="n">
         <v>20.93</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>-3.7</v>
@@ -1581,45 +1621,48 @@
         <v>-4.6</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF12" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" s="6" t="n">
         <v>20.86</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>-3.7</v>
@@ -1681,45 +1724,48 @@
         <v>-4.6</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF13" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>21.32</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>-3.7</v>
@@ -1781,45 +1827,48 @@
         <v>-4.6</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF14" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J15" s="6" t="n">
         <v>20.94</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>-3.7</v>
@@ -1881,45 +1930,48 @@
         <v>-4.6</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF15" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>20.9</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>-3.7</v>
@@ -1981,45 +2033,48 @@
         <v>-4.6</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF16" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J17" s="6" t="n">
         <v>21.31</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>-3.7</v>
@@ -2081,10 +2136,13 @@
         <v>-4.6</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF17" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheets/Stoskopf_et_al_2001.xlsx
+++ b/datasheets/Stoskopf_et_al_2001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="59">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Taxon</t>
   </si>
   <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
     <t xml:space="preserve">Animal</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alligator mississipiensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alligatoridae</t>
   </si>
   <si>
     <t xml:space="preserve">crocodilian</t>
@@ -358,42 +364,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG26" activeCellId="0" sqref="AG26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="36.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,7 +436,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -496,1653 +502,1704 @@
       <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <v>19.39</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="n">
         <v>-3.6</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="N2" s="5" t="n">
         <v>27.348</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="O2" s="5" t="n">
         <v>-80.899</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <f aca="false">MIN(S2:AD2)</f>
+      <c r="R2" s="1" t="n">
+        <f aca="false">MIN(T2:AE2)</f>
         <v>-3.6</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <f aca="false">MAX(S2:AD2)</f>
+      <c r="S2" s="1" t="n">
+        <f aca="false">MAX(T2:AE2)</f>
         <v>-0.6</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB2" s="1" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AD2" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AF2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>27.348</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>-80.899</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <f aca="false">MIN(T3:AE3)</f>
+        <v>-3.6</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <f aca="false">MAX(T3:AE3)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>27.348</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>-80.899</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <f aca="false">MIN(S3:AD3)</f>
-        <v>-3.6</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <f aca="false">MAX(S3:AD3)</f>
-        <v>-0.6</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" s="0" t="s">
-        <v>45</v>
+      <c r="AH3" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>27.348</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-80.899</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <f aca="false">MIN(T4:AE4)</f>
+        <v>-3.6</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <f aca="false">MAX(T4:AE4)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>19.32</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>27.348</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>-80.899</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <f aca="false">MIN(S4:AD4)</f>
-        <v>-3.6</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <f aca="false">MAX(S4:AD4)</f>
-        <v>-0.6</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG4" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>19.35</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>-3.6</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="N5" s="5" t="n">
         <v>27.348</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="O5" s="5" t="n">
         <v>-80.899</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Q5" s="1" t="n">
-        <f aca="false">MIN(S5:AD5)</f>
+      <c r="R5" s="1" t="n">
+        <f aca="false">MIN(T5:AE5)</f>
         <v>-3.6</v>
       </c>
-      <c r="R5" s="1" t="n">
-        <f aca="false">MAX(S5:AD5)</f>
+      <c r="S5" s="1" t="n">
+        <f aca="false">MAX(T5:AE5)</f>
         <v>-0.6</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="T5" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="U5" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="X5" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AC5" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AD5" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AF5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG5" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="6" t="n">
         <v>19.16</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>-3.6</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="N6" s="5" t="n">
         <v>27.348</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="O6" s="5" t="n">
         <v>-80.899</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Q6" s="1" t="n">
-        <f aca="false">MIN(S6:AD6)</f>
+      <c r="R6" s="1" t="n">
+        <f aca="false">MIN(T6:AE6)</f>
         <v>-3.6</v>
       </c>
-      <c r="R6" s="1" t="n">
-        <f aca="false">MAX(S6:AD6)</f>
+      <c r="S6" s="1" t="n">
+        <f aca="false">MAX(T6:AE6)</f>
         <v>-0.6</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="T6" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AC6" s="1" t="n">
+      <c r="AD6" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AF6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG6" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>19.14</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="5" t="n">
         <v>-3.6</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="N7" s="5" t="n">
         <v>27.348</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="O7" s="5" t="n">
         <v>-80.899</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Q7" s="1" t="n">
-        <f aca="false">MIN(S7:AD7)</f>
+      <c r="R7" s="1" t="n">
+        <f aca="false">MIN(T7:AE7)</f>
         <v>-3.6</v>
       </c>
-      <c r="R7" s="1" t="n">
-        <f aca="false">MAX(S7:AD7)</f>
+      <c r="S7" s="1" t="n">
+        <f aca="false">MAX(T7:AE7)</f>
         <v>-0.6</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="T7" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AD7" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AF7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG7" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>18.85</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="5" t="n">
         <v>-3.6</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="N8" s="5" t="n">
         <v>27.348</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="O8" s="5" t="n">
         <v>-80.899</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Q8" s="1" t="n">
-        <f aca="false">MIN(S8:AD8)</f>
+      <c r="R8" s="1" t="n">
+        <f aca="false">MIN(T8:AE8)</f>
         <v>-3.6</v>
       </c>
-      <c r="R8" s="1" t="n">
-        <f aca="false">MAX(S8:AD8)</f>
+      <c r="S8" s="1" t="n">
+        <f aca="false">MAX(T8:AE8)</f>
         <v>-0.6</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="T8" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="U8" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z8" s="1" t="n">
+      <c r="AA8" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AB8" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AC8" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AC8" s="1" t="n">
+      <c r="AD8" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AF8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG8" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="6" t="n">
         <v>19.25</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="5" t="n">
         <v>-3.6</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="N9" s="5" t="n">
         <v>27.348</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>-80.899</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Q9" s="1" t="n">
-        <f aca="false">MIN(S9:AD9)</f>
+      <c r="R9" s="1" t="n">
+        <f aca="false">MIN(T9:AE9)</f>
         <v>-3.6</v>
       </c>
-      <c r="R9" s="1" t="n">
-        <f aca="false">MAX(S9:AD9)</f>
+      <c r="S9" s="1" t="n">
+        <f aca="false">MAX(T9:AE9)</f>
         <v>-0.6</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="T9" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="X9" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="AA9" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AB9" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AC9" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AD9" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AF9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG9" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="6" t="n">
         <v>21.35</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="N10" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="O10" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="Q10" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q10" s="1" t="n">
-        <f aca="false">MIN(S10:AD10)</f>
+      <c r="R10" s="1" t="n">
+        <f aca="false">MIN(T10:AE10)</f>
         <v>-5.1</v>
       </c>
-      <c r="R10" s="1" t="n">
-        <f aca="false">MAX(S10:AD10)</f>
+      <c r="S10" s="1" t="n">
+        <f aca="false">MAX(T10:AE10)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T10" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U10" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V10" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="X10" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AB10" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AC10" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC10" s="1" t="n">
+      <c r="AD10" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG10" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="6" t="n">
         <v>21.12</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="N11" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="O11" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q11" s="1" t="n">
-        <f aca="false">MIN(S11:AD11)</f>
+      <c r="R11" s="1" t="n">
+        <f aca="false">MIN(T11:AE11)</f>
         <v>-5.1</v>
       </c>
-      <c r="R11" s="1" t="n">
-        <f aca="false">MAX(S11:AD11)</f>
+      <c r="S11" s="1" t="n">
+        <f aca="false">MAX(T11:AE11)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T11" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U11" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V11" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AC11" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC11" s="1" t="n">
+      <c r="AD11" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD11" s="1" t="n">
+      <c r="AE11" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE11" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG11" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>20.93</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="N12" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="O12" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q12" s="1" t="n">
-        <f aca="false">MIN(S12:AD12)</f>
+      <c r="R12" s="1" t="n">
+        <f aca="false">MIN(T12:AE12)</f>
         <v>-5.1</v>
       </c>
-      <c r="R12" s="1" t="n">
-        <f aca="false">MAX(S12:AD12)</f>
+      <c r="S12" s="1" t="n">
+        <f aca="false">MAX(T12:AE12)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T12" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U12" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V12" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="X12" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AB12" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AC12" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC12" s="1" t="n">
+      <c r="AD12" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG12" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="6" t="n">
         <v>20.86</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="N13" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="O13" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q13" s="1" t="n">
-        <f aca="false">MIN(S13:AD13)</f>
+      <c r="R13" s="1" t="n">
+        <f aca="false">MIN(T13:AE13)</f>
         <v>-5.1</v>
       </c>
-      <c r="R13" s="1" t="n">
-        <f aca="false">MAX(S13:AD13)</f>
+      <c r="S13" s="1" t="n">
+        <f aca="false">MAX(T13:AE13)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T13" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U13" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V13" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="X13" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="AA13" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AD13" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG13" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="6" t="n">
         <v>21.32</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="5" t="n">
+      <c r="L14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="N14" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="O14" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q14" s="1" t="n">
-        <f aca="false">MIN(S14:AD14)</f>
+      <c r="R14" s="1" t="n">
+        <f aca="false">MIN(T14:AE14)</f>
         <v>-5.1</v>
       </c>
-      <c r="R14" s="1" t="n">
-        <f aca="false">MAX(S14:AD14)</f>
+      <c r="S14" s="1" t="n">
+        <f aca="false">MAX(T14:AE14)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T14" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U14" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V14" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AD14" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG14" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="6" t="n">
         <v>20.94</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="N15" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="O15" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q15" s="1" t="n">
-        <f aca="false">MIN(S15:AD15)</f>
+      <c r="R15" s="1" t="n">
+        <f aca="false">MIN(T15:AE15)</f>
         <v>-5.1</v>
       </c>
-      <c r="R15" s="1" t="n">
-        <f aca="false">MAX(S15:AD15)</f>
+      <c r="S15" s="1" t="n">
+        <f aca="false">MAX(T15:AE15)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T15" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U15" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V15" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC15" s="1" t="n">
+      <c r="AD15" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG15" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="6" t="n">
         <v>20.9</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="N16" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="O16" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q16" s="1" t="n">
-        <f aca="false">MIN(S16:AD16)</f>
+      <c r="R16" s="1" t="n">
+        <f aca="false">MIN(T16:AE16)</f>
         <v>-5.1</v>
       </c>
-      <c r="R16" s="1" t="n">
-        <f aca="false">MAX(S16:AD16)</f>
+      <c r="S16" s="1" t="n">
+        <f aca="false">MAX(T16:AE16)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T16" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U16" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V16" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z16" s="1" t="n">
+      <c r="AA16" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AB16" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AC16" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC16" s="1" t="n">
+      <c r="AD16" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG16" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="6" t="n">
         <v>21.31</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="N17" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="O17" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="Q17" s="1" t="n">
-        <f aca="false">MIN(S17:AD17)</f>
+      <c r="R17" s="1" t="n">
+        <f aca="false">MIN(T17:AE17)</f>
         <v>-5.1</v>
       </c>
-      <c r="R17" s="1" t="n">
-        <f aca="false">MAX(S17:AD17)</f>
+      <c r="S17" s="1" t="n">
+        <f aca="false">MAX(T17:AE17)</f>
         <v>-0.8</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="T17" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="U17" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V17" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="W17" s="1" t="n">
+      <c r="X17" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z17" s="1" t="n">
+      <c r="AA17" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB17" s="1" t="n">
+      <c r="AC17" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AC17" s="1" t="n">
+      <c r="AD17" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AD17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AF17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG17" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,11 +2212,12 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -2171,11 +2229,12 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
@@ -2187,19 +2246,20 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
-      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -2211,11 +2271,12 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -2227,11 +2288,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -2243,11 +2305,12 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -2259,11 +2322,12 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
@@ -2275,11 +2339,12 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
@@ -2291,11 +2356,12 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
@@ -2307,11 +2373,12 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
@@ -2323,11 +2390,12 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
@@ -2339,11 +2407,12 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
@@ -2355,11 +2424,12 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="7"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
@@ -2371,11 +2441,12 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="5"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
@@ -2387,11 +2458,12 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="5"/>
+      <c r="L33" s="7"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
@@ -2403,11 +2475,12 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="5"/>
+      <c r="L34" s="7"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
@@ -2419,11 +2492,12 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="7"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
@@ -2435,11 +2509,12 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="5"/>
+      <c r="L36" s="7"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
@@ -2451,11 +2526,12 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="7"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="5"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -2467,11 +2543,12 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="5"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -2483,11 +2560,12 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="5"/>
+      <c r="L39" s="7"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -2499,11 +2577,12 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="5"/>
+      <c r="L40" s="7"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
@@ -2515,11 +2594,12 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="5"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/datasheets/Stoskopf_et_al_2001.xlsx
+++ b/datasheets/Stoskopf_et_al_2001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -130,9 +130,6 @@
     <t xml:space="preserve">refShort</t>
   </si>
   <si>
-    <t xml:space="preserve">Captive individual 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alligator mississipiensis</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stoskopf et al. (2001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wild individual 1</t>
   </si>
   <si>
     <t xml:space="preserve">bone, thoracic vertebra</t>
@@ -354,8 +348,8 @@
   </sheetPr>
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH14" activeCellId="0" sqref="AH14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,35 +495,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="K2" s="6" t="n">
         <v>19.1925</v>
@@ -538,7 +530,7 @@
         <v>0.6675</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>-3.6</v>
@@ -601,45 +593,43 @@
         <v>-3.2</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="K3" s="6" t="n">
         <v>21.09125</v>
@@ -648,7 +638,7 @@
         <v>1.335</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>-3.7</v>
@@ -713,13 +703,13 @@
         <v>-4.6</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
